--- a/FINISHED/geopackages/dsra_attributes_fr.xlsx
+++ b/FINISHED/geopackages/dsra_attributes_fr.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\data\FGP - DSRA\For Translation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77387FE-F6EE-4139-A2D7-CB12BAF31576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Résumé" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="carteséismes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="bâtiments" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="sauid" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="sdr" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Résumé" sheetId="1" r:id="rId1"/>
+    <sheet name="carteséismes" sheetId="2" r:id="rId2"/>
+    <sheet name="bâtiments" sheetId="3" r:id="rId3"/>
+    <sheet name="sauid" sheetId="4" r:id="rId4"/>
+    <sheet name="sdr" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,1002 +29,1092 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="328">
-  <si>
-    <t xml:space="preserve">Résumé – Description des données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette couche comprend des scénarios déterministes relatifs aux séismes, y compris des évaluations des dangers et des risques, pour le Canada. L'information est fournie à l'échelle des « zones habitées », qui délimitent de façon approximative des groupes de bâtiments à travers le Canada selon les limites des aires de diffusion du recensement. Les effets des séismes sont indiqués en fonction de l'intensité des secousses, des dommages aux bâtiments, des pertes financières, du nombre de victimes, des perturbations aux habitations et aux entreprises, de la production de décombres et du rétablissement. Tous les effets sont le résultat des dommages causés par les secousses aux bâtiments et à leurs occupants : le modèle ne tient pas compte des risques secondaires, des dommages aux véhicules, des dommages aux infrastructures ou des pertes secondaires telles que la perturbation des activités commerciales. Il s'agit de la contribution du Catalogue des scénarios de séismes au premier Modèle canadien de risque sismique (CanSRM1).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de l'attribut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description détaillée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID du site à risque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code d'identification unique attribué à l'emplacement du bien utilisé pour échantillonner les valeurs des Vs30 pour le calcul du facteur d'amplification du site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude du site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degré de longitude est-ouest de l'attribut SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude du site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degré de latitude nord-sud de l'attribut SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_RupName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scénario de séisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom du scénario de rupture du séisme utilisé pour l'estimation des dommages et des pertes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnitude de moment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnitude du scénario de rupture du séisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_GMPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modèle de mouvement du sol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensemble de modèles de mouvement du sol utilisé pour calculer la propagation de l'énergie sismique de la zone de rupture du séisme à un point de la surface terrestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_PGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération maximale du sol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g (9,81 m/s2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération maximale du sol (PGA) attendue selon le scénario de séisme (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa0p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale (0,1 s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale attendue à 0,1 seconde (SA0.1) selon le scénario de séisme (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa0p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale (0,2 s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale attendue à 0,2 seconde (SA0.2) selon le scénario de séisme (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa0p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale (0,3 s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale attendue à 0,3 seconde (SA0.3) selon le scénario de séisme (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa0p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale (0,5 s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale attendue à 0,5 seconde (SA0.5) selon le scénario de séisme (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa0p6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale (0,6 s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale attendue à 0,6 seconde (SA0.6) selon le scénario de séisme (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa1p0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale (1,0 s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale attendue à 1 seconde (SA1.0) selon le scénario de séisme (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa2p0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale (2,0 s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accélération spectrale attendue à 2 secondes (SA2.0) selon le scénario de séisme (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction d'agrégation 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="359">
+  <si>
+    <t>Résumé – Description des données</t>
+  </si>
+  <si>
+    <t>Cette couche comprend des scénarios déterministes relatifs aux séismes, y compris des évaluations des dangers et des risques, pour le Canada. L'information est fournie à l'échelle des « zones habitées », qui délimitent de façon approximative des groupes de bâtiments à travers le Canada selon les limites des aires de diffusion du recensement. Les effets des séismes sont indiqués en fonction de l'intensité des secousses, des dommages aux bâtiments, des pertes financières, du nombre de victimes, des perturbations aux habitations et aux entreprises, de la production de décombres et du rétablissement. Tous les effets sont le résultat des dommages causés par les secousses aux bâtiments et à leurs occupants : le modèle ne tient pas compte des risques secondaires, des dommages aux véhicules, des dommages aux infrastructures ou des pertes secondaires telles que la perturbation des activités commerciales. Il s'agit de la contribution du Catalogue des scénarios de séismes au premier Modèle canadien de risque sismique (CanSRM1).</t>
+  </si>
+  <si>
+    <t>Nom de l'attribut</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Unité</t>
+  </si>
+  <si>
+    <t>Description détaillée</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>ID du site à risque</t>
+  </si>
+  <si>
+    <t>texte</t>
+  </si>
+  <si>
+    <t>Code d'identification unique attribué à l'emplacement du bien utilisé pour échantillonner les valeurs des Vs30 pour le calcul du facteur d'amplification du site</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Longitude du site</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Degré de longitude est-ouest de l'attribut SiteID</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Latitude du site</t>
+  </si>
+  <si>
+    <t>Degré de latitude nord-sud de l'attribut SiteID</t>
+  </si>
+  <si>
+    <t>sH_RupName</t>
+  </si>
+  <si>
+    <t>Scénario de séisme</t>
+  </si>
+  <si>
+    <t>Nom du scénario de rupture du séisme utilisé pour l'estimation des dommages et des pertes</t>
+  </si>
+  <si>
+    <t>sH_Mag</t>
+  </si>
+  <si>
+    <t>Magnitude de moment</t>
+  </si>
+  <si>
+    <t>Magnitude du scénario de rupture du séisme</t>
+  </si>
+  <si>
+    <t>sH_GMPE</t>
+  </si>
+  <si>
+    <t>Modèle de mouvement du sol</t>
+  </si>
+  <si>
+    <t>Ensemble de modèles de mouvement du sol utilisé pour calculer la propagation de l'énergie sismique de la zone de rupture du séisme à un point de la surface terrestre</t>
+  </si>
+  <si>
+    <t>sH_PGA</t>
+  </si>
+  <si>
+    <t>Accélération maximale du sol</t>
+  </si>
+  <si>
+    <t>g (9,81 m/s2)</t>
+  </si>
+  <si>
+    <t>Accélération maximale du sol (PGA) attendue selon le scénario de séisme (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa0p1</t>
+  </si>
+  <si>
+    <t>Accélération spectrale (0,1 s)</t>
+  </si>
+  <si>
+    <t>Accélération spectrale attendue à 0,1 seconde (SA0.1) selon le scénario de séisme (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa0p2</t>
+  </si>
+  <si>
+    <t>Accélération spectrale (0,2 s)</t>
+  </si>
+  <si>
+    <t>Accélération spectrale attendue à 0,2 seconde (SA0.2) selon le scénario de séisme (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa0p3</t>
+  </si>
+  <si>
+    <t>Accélération spectrale (0,3 s)</t>
+  </si>
+  <si>
+    <t>Accélération spectrale attendue à 0,3 seconde (SA0.3) selon le scénario de séisme (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa0p5</t>
+  </si>
+  <si>
+    <t>Accélération spectrale (0,5 s)</t>
+  </si>
+  <si>
+    <t>Accélération spectrale attendue à 0,5 seconde (SA0.5) selon le scénario de séisme (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa0p6</t>
+  </si>
+  <si>
+    <t>Accélération spectrale (0,6 s)</t>
+  </si>
+  <si>
+    <t>Accélération spectrale attendue à 0,6 seconde (SA0.6) selon le scénario de séisme (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa1p0</t>
+  </si>
+  <si>
+    <t>Accélération spectrale (1,0 s)</t>
+  </si>
+  <si>
+    <t>Accélération spectrale attendue à 1 seconde (SA1.0) selon le scénario de séisme (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa2p0</t>
+  </si>
+  <si>
+    <t>Accélération spectrale (2,0 s)</t>
+  </si>
+  <si>
+    <t>Accélération spectrale attendue à 2 secondes (SA2.0) selon le scénario de séisme (sH_RupName)</t>
+  </si>
+  <si>
+    <t>Fonction d'agrégation 
 vers SAUID</t>
   </si>
   <si>
-    <t xml:space="preserve">AssetID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID du bien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S. O.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code d'identification unique attribué au bâtiment en fonction des attributs nombre-occupation-type-niveau de conception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type de source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone source représentative du séisme pour le scénario de rupture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_HypoLon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude de l'hypocentre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degré de longitude est-ouest de l'hypocentre du séisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_HypoLat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude de l'hypocentre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degré de latitude nord-sud de l'hypocentre du séisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_HypoDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profondeur de l'hypocentre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profondeur de l'hypocentre du séisme sous la surface du sol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Rake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction de la rupture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction du glissement le long de la surface de rupture du séisme, mesurée par rapport à la direction de la faille (entre -180 et 180 degrés décimaux). Convention établie à partir de Aki et Richards (1980), où le glissement latéral gauche est de 0, le glissement inverse de 90, le glissement normal de -90, et le glissement latéral droit de 180 ou de -180.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Vs30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitesse des ondes de cisaillement à 30 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitesse moyenne des ondes de cisaillement, en m/s, dans les 30 premiers mètres du sol ou de la roche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_z1p0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitesse des ondes de cisaillement à 1 km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profondeur à laquelle la vitesse des ondes de cisaillement est de 1 km/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_z2p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitesse des ondes de cisaillement à 2,5 km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profondeur à laquelle la vitesse des ondes de cisaillement est de 2,5 km/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_None (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absence de dommages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bâtiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de bâtiments non endommagés selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_None (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité d'absence de dommages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVERAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité d'absence de dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_Slight (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dommages légers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de bâtiments susceptibles de subir des dommages légers selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_Slight (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité de dommages légers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité de dommages légers aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_Moderate (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dommages modérés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de bâtiments susceptibles de subir des dommages modérés selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_Moderate (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité de dommages modérés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité de dommages modérés aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_Extensive (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dommages importants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de bâtiments susceptibles de subir des dommages importants selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_Extensive (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité de dommages importants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité de dommages importants aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_Complete (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dommages complets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de bâtiments susceptibles de subir des dommages complets selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_Complete (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité de dommages complets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité de dommages complets aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_Collapse (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effondrements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de bâtiments effondrés selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_Collapse (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité d'effondrement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilité d'effondrement des bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Interruption (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temps d'arrêt des bâtiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durée prévue pendant laquelle un bâtiment n'est pas fonctionnel à des fins d'habitation ou d'activités commerciales selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Repair (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temps de réparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durée prévue pour le nettoyage, l'obtention des permis, la construction et la réparation des dommages subis par le bâtiment selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Recovery (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temps de rétablissement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temps nécessaire pour rétablir le niveau de fonctionnalité du bâtiment préalable à l'événement (niveau de référence) selon le scénario de séisme (sH_RupName), y compris le temps d'arrêt initial et le temps de nettoyage, de construction et de réparation des dommages au bâtiment, (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_DebrisTotal (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décombres totaux liés à une catastrophe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tonnes (t)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume attendu de décombres générés par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_DebrisBW (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décombres de bois et de briques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume attendu de décombres de bois et de briques générés par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_DebrisCS (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décombres de béton et d'acier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume attendu de décombres de béton et d'acier générés par les dommages causés aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasDayL1 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures mineures (jour)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personnes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de personnes susceptibles de recevoir des premiers soins (niveau de gravité 1) selon le scénario de séisme (sH_RupName), s'il se produit pendant le jour (09:00-17:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasDayL2 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures modérées (jour)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de personnes susceptibles de subir des blessures ne menaçant pas leur vie et nécessitant un traitement médical spécialisé (niveau de gravité 2) selon le scénario de séisme (sH_RupName), s'il se produit pendant le jour (09:00-17:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasDayL3 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures graves (jour)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de personnes susceptibles de subir des blessures potentiellement mortelles et nécessitant une hospitalisation (niveau de gravité 3) selon le scénario de séisme (sH_RupName), s'il se produit pendant le jour (09:00-17:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasDayL4 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures mortelles (jour)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de décès attendus résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant le jour (09:00-17:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasNightL1 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures mineures (nuit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de personnes susceptibles de recevoir des premiers soins (niveau de gravité 1) selon le scénario de séisme (sH_RupName), s'il se produit pendant la nuit (20:00-06:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasNightL2 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures modérées (nuit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de personnes susceptibles de subir des blessures ne menaçant pas leur vie et nécessitant un traitement médical spécialisé (niveau de gravité 2) selon le scénario de séisme (sH_RupName), s'il se produit pendant la nuit (20:00-06:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasNightL3 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures graves (nuit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de personnes susceptibles de subir des blessures potentiellement mortelles et nécessitant une hospitalisation (niveau de gravité 3) selon le scénario de séisme (sH_RupName), s'il se produit pendant la nuit (20:00-06:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasNightL4 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures mortelles (nuit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de décès attendus résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant la nuit (20:00-06:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasTransitL1 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures mineures (en transit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de personnes susceptibles de recevoir des premiers soins (niveau de gravité 1) selon le scénario de séisme (sH_RupName), s'il se produit pendant les déplacements domicile-travail du matin et du soir (06:00-09:00 et 17:00-20:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasTransitL2 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures modérées (en transit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de personnes susceptibles de subir des blessures ne menaçant pas leur vie et nécessitant un traitement médical spécialisé (niveau de gravité 2) selon le scénario de séisme (sH_RupName), s'il se produit pendant les déplacements domicile-travail du matin et du soir (06:00-09:00 et 17:00-20:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasTransitL3 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures graves (en transit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de personnes susceptibles de subir des blessures potentiellement mortelles et nécessitant une hospitalisation (niveau de gravité 3) selon le scénario de séisme (sH_RupName), s'il se produit pendant les déplacements domicile-travail du matin et du soir (06:00-09:00 et 17:00-20:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasTransitL4 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessures mortelles (en transit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de décès attendus résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant les déplacements domicile-travail du matin et du soir (06:00-09:00 et 17:00-20:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Res3 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Résidents relogés après 3 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de personnes à reloger pendant un maximum de 3 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Res30 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Résidents relogés après 30 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de personnes à reloger pendant un maximum de 30 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Res90 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Résidents relogés après 90 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de personnes à reloger pendant un maximum de 90 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCr_Res90 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio de résidents relogés après 90 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion attendue de la population nocturne à reloger pendant un maximum de 90 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments (sCt_DisplRes90 / Et_PopNight)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Res180 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Résidents relogés après 180 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de personnes à reloger pendant un maximum de 180 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Res360 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Résidents relogés après 360 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de personnes à reloger pendant un maximum de 360 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Hshld (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ménages relogés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ménages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de ménages à reloger selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Empl30 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employés affectés après 30 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu d'employés affectés pendant un maximum de 30 jours par l'interruption des activités commerciales causée par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Empl90 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employés affectés après 90 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu d'employés affectés pendant un maximum de 90 jours par l'interruption des activités commerciales causée par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCr_Empl90 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio d'employés affectés après 90 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion attendue d'employés affectés pendant un maximum de 90 jours par l'interruption des activités commerciales causée par les dommages aux bâtiments selon le scénario de séisme (sCt_DisrupEmpl90 / Et_PopDay), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Empl180 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employés affectés après 180 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu d'employés affectés pendant un maximum de 180 jours par l'interruption des activités commerciales causée par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Empl360 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employés affectés après 360 jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu d'employés affectés pendant un maximum de 360 jours par l'interruption des activités commerciales causée par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sL_Asset (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertes d'actifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertes totales attendues d'actifs immobilisés (bâtiments et leur contenu) selon un scénario de rupture de séisme précis (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sL_Bldg (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertes liées aux bâtiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertes totales attendues en raison des dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLr_Bldg (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio des pertes liées aux bâtiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio moyen des pertes liées aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sL_Str (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertes structurales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertes totales attendues liées aux éléments structuraux des bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sL_Nstr (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertes non structurales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertes totales attendues liées aux éléments non structuraux des bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sL_Cont (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertes liées au contenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertes totales attendues liées au contenu des bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID de la zone habitée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code d'identification unique attribué à une zone habitée (SAUID), qui représente l'empreinte approximative des bâtiments permanents dans les aires de diffusion du recensement (DAUID)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pruid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID de la province ou du territoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificateur unique attribué à la province ou au territoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de la province ou du territoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eruid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID de la région économique du recensement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificateur unique attribué à la région économique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cduid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID de la division de recensement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificateur unique attribué à la division de recensement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de la division de recensement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csduid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID de la subdivision de recensement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificateur unique attribué à la subdivision de recensement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csdname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de la subdivision de recensement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fsauid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID de la région de tri d'acheminement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificateur unique attribué à la région de tri d'acheminement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dauid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID de l'aire de diffusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificateur unique attribué à l'aire de diffusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saccode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classification des secteurs statistiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code à trois chiffres de la Classification des secteurs statistiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sactype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genre de la Classification des secteurs statistiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Classification des secteurs statistiques indique si une subdivision de recensement est une composante d'une région métropolitaine de recensement, d'une agglomération de recensement, d'une zone d'influence métropolitaine de recensement ou dans les territoires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction d'agrégation 
+    <t>AssetID</t>
+  </si>
+  <si>
+    <t>ID du bien</t>
+  </si>
+  <si>
+    <t>S. O.</t>
+  </si>
+  <si>
+    <t>Code d'identification unique attribué au bâtiment en fonction des attributs nombre-occupation-type-niveau de conception</t>
+  </si>
+  <si>
+    <t>sH_Source</t>
+  </si>
+  <si>
+    <t>Type de source</t>
+  </si>
+  <si>
+    <t>Zone source représentative du séisme pour le scénario de rupture</t>
+  </si>
+  <si>
+    <t>sH_HypoLon</t>
+  </si>
+  <si>
+    <t>Longitude de l'hypocentre</t>
+  </si>
+  <si>
+    <t>Degré de longitude est-ouest de l'hypocentre du séisme</t>
+  </si>
+  <si>
+    <t>sH_HypoLat</t>
+  </si>
+  <si>
+    <t>Latitude de l'hypocentre</t>
+  </si>
+  <si>
+    <t>Degré de latitude nord-sud de l'hypocentre du séisme</t>
+  </si>
+  <si>
+    <t>sH_HypoDepth</t>
+  </si>
+  <si>
+    <t>Profondeur de l'hypocentre</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Profondeur de l'hypocentre du séisme sous la surface du sol</t>
+  </si>
+  <si>
+    <t>sH_Rake</t>
+  </si>
+  <si>
+    <t>Direction de la rupture</t>
+  </si>
+  <si>
+    <t>Direction du glissement le long de la surface de rupture du séisme, mesurée par rapport à la direction de la faille (entre -180 et 180 degrés décimaux). Convention établie à partir de Aki et Richards (1980), où le glissement latéral gauche est de 0, le glissement inverse de 90, le glissement normal de -90, et le glissement latéral droit de 180 ou de -180.</t>
+  </si>
+  <si>
+    <t>sH_Vs30</t>
+  </si>
+  <si>
+    <t>Vitesse des ondes de cisaillement à 30 m</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Vitesse moyenne des ondes de cisaillement, en m/s, dans les 30 premiers mètres du sol ou de la roche</t>
+  </si>
+  <si>
+    <t>sH_z1p0</t>
+  </si>
+  <si>
+    <t>Vitesse des ondes de cisaillement à 1 km</t>
+  </si>
+  <si>
+    <t>Profondeur à laquelle la vitesse des ondes de cisaillement est de 1 km/s</t>
+  </si>
+  <si>
+    <t>sH_z2p5</t>
+  </si>
+  <si>
+    <t>Vitesse des ondes de cisaillement à 2,5 km</t>
+  </si>
+  <si>
+    <t>Profondeur à laquelle la vitesse des ondes de cisaillement est de 2,5 km/s</t>
+  </si>
+  <si>
+    <t>sD_None (b0/r1)</t>
+  </si>
+  <si>
+    <t>Absence de dommages</t>
+  </si>
+  <si>
+    <t>bâtiments</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Nombre attendu de bâtiments non endommagés selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sDr_None (b0/r1)</t>
+  </si>
+  <si>
+    <t>Probabilité d'absence de dommages</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Probabilité d'absence de dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sD_Slight (b0/r1)</t>
+  </si>
+  <si>
+    <t>Dommages légers</t>
+  </si>
+  <si>
+    <t>Nombre attendu de bâtiments susceptibles de subir des dommages légers selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sDr_Slight (b0/r1)</t>
+  </si>
+  <si>
+    <t>Probabilité de dommages légers</t>
+  </si>
+  <si>
+    <t>Probabilité de dommages légers aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sD_Moderate (b0/r1)</t>
+  </si>
+  <si>
+    <t>Dommages modérés</t>
+  </si>
+  <si>
+    <t>Nombre attendu de bâtiments susceptibles de subir des dommages modérés selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sDr_Moderate (b0/r1)</t>
+  </si>
+  <si>
+    <t>Probabilité de dommages modérés</t>
+  </si>
+  <si>
+    <t>Probabilité de dommages modérés aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sD_Extensive (b0/r1)</t>
+  </si>
+  <si>
+    <t>Dommages importants</t>
+  </si>
+  <si>
+    <t>Nombre attendu de bâtiments susceptibles de subir des dommages importants selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sDr_Extensive (b0/r1)</t>
+  </si>
+  <si>
+    <t>Probabilité de dommages importants</t>
+  </si>
+  <si>
+    <t>Probabilité de dommages importants aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sD_Complete (b0/r1)</t>
+  </si>
+  <si>
+    <t>Dommages complets</t>
+  </si>
+  <si>
+    <t>Nombre attendu de bâtiments susceptibles de subir des dommages complets selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sDr_Complete (b0/r1)</t>
+  </si>
+  <si>
+    <t>Probabilité de dommages complets</t>
+  </si>
+  <si>
+    <t>Probabilité de dommages complets aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sD_Collapse (b0/r1)</t>
+  </si>
+  <si>
+    <t>Effondrements</t>
+  </si>
+  <si>
+    <t>Nombre attendu de bâtiments effondrés selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sDr_Collapse (b0/r1)</t>
+  </si>
+  <si>
+    <t>Probabilité d'effondrement</t>
+  </si>
+  <si>
+    <t>Probabilité d'effondrement des bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Interruption (b0/r1)</t>
+  </si>
+  <si>
+    <t>Temps d'arrêt des bâtiments</t>
+  </si>
+  <si>
+    <t>jours</t>
+  </si>
+  <si>
+    <t>Durée prévue pendant laquelle un bâtiment n'est pas fonctionnel à des fins d'habitation ou d'activités commerciales selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Repair (b0/r1)</t>
+  </si>
+  <si>
+    <t>Temps de réparation</t>
+  </si>
+  <si>
+    <t>Durée prévue pour le nettoyage, l'obtention des permis, la construction et la réparation des dommages subis par le bâtiment selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Recovery (b0/r1)</t>
+  </si>
+  <si>
+    <t>Temps de rétablissement</t>
+  </si>
+  <si>
+    <t>Temps nécessaire pour rétablir le niveau de fonctionnalité du bâtiment préalable à l'événement (niveau de référence) selon le scénario de séisme (sH_RupName), y compris le temps d'arrêt initial et le temps de nettoyage, de construction et de réparation des dommages au bâtiment, (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_DebrisTotal (b0/r1)</t>
+  </si>
+  <si>
+    <t>Décombres totaux liés à une catastrophe</t>
+  </si>
+  <si>
+    <t>tonnes (t)</t>
+  </si>
+  <si>
+    <t>Volume attendu de décombres générés par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_DebrisBW (b0/r1)</t>
+  </si>
+  <si>
+    <t>Décombres de bois et de briques</t>
+  </si>
+  <si>
+    <t>Volume attendu de décombres de bois et de briques générés par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_DebrisCS (b0/r1)</t>
+  </si>
+  <si>
+    <t>Décombres de béton et d'acier</t>
+  </si>
+  <si>
+    <t>Volume attendu de décombres de béton et d'acier générés par les dommages causés aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasDayL1 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures mineures (jour)</t>
+  </si>
+  <si>
+    <t>personnes</t>
+  </si>
+  <si>
+    <t>Nombre de personnes susceptibles de recevoir des premiers soins (niveau de gravité 1) selon le scénario de séisme (sH_RupName), s'il se produit pendant le jour (09:00-17:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasDayL2 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures modérées (jour)</t>
+  </si>
+  <si>
+    <t>Nombre de personnes susceptibles de subir des blessures ne menaçant pas leur vie et nécessitant un traitement médical spécialisé (niveau de gravité 2) selon le scénario de séisme (sH_RupName), s'il se produit pendant le jour (09:00-17:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasDayL3 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures graves (jour)</t>
+  </si>
+  <si>
+    <t>Nombre de personnes susceptibles de subir des blessures potentiellement mortelles et nécessitant une hospitalisation (niveau de gravité 3) selon le scénario de séisme (sH_RupName), s'il se produit pendant le jour (09:00-17:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasDayL4 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures mortelles (jour)</t>
+  </si>
+  <si>
+    <t>Nombre de décès attendus résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant le jour (09:00-17:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasNightL1 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures mineures (nuit)</t>
+  </si>
+  <si>
+    <t>Nombre de personnes susceptibles de recevoir des premiers soins (niveau de gravité 1) selon le scénario de séisme (sH_RupName), s'il se produit pendant la nuit (20:00-06:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasNightL2 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures modérées (nuit)</t>
+  </si>
+  <si>
+    <t>Nombre de personnes susceptibles de subir des blessures ne menaçant pas leur vie et nécessitant un traitement médical spécialisé (niveau de gravité 2) selon le scénario de séisme (sH_RupName), s'il se produit pendant la nuit (20:00-06:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasNightL3 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures graves (nuit)</t>
+  </si>
+  <si>
+    <t>Nombre de personnes susceptibles de subir des blessures potentiellement mortelles et nécessitant une hospitalisation (niveau de gravité 3) selon le scénario de séisme (sH_RupName), s'il se produit pendant la nuit (20:00-06:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasNightL4 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures mortelles (nuit)</t>
+  </si>
+  <si>
+    <t>Nombre de décès attendus résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant la nuit (20:00-06:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasTransitL1 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures mineures (en transit)</t>
+  </si>
+  <si>
+    <t>Nombre de personnes susceptibles de recevoir des premiers soins (niveau de gravité 1) selon le scénario de séisme (sH_RupName), s'il se produit pendant les déplacements domicile-travail du matin et du soir (06:00-09:00 et 17:00-20:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasTransitL2 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures modérées (en transit)</t>
+  </si>
+  <si>
+    <t>Nombre de personnes susceptibles de subir des blessures ne menaçant pas leur vie et nécessitant un traitement médical spécialisé (niveau de gravité 2) selon le scénario de séisme (sH_RupName), s'il se produit pendant les déplacements domicile-travail du matin et du soir (06:00-09:00 et 17:00-20:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasTransitL3 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures graves (en transit)</t>
+  </si>
+  <si>
+    <t>Nombre de personnes susceptibles de subir des blessures potentiellement mortelles et nécessitant une hospitalisation (niveau de gravité 3) selon le scénario de séisme (sH_RupName), s'il se produit pendant les déplacements domicile-travail du matin et du soir (06:00-09:00 et 17:00-20:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_CasTransitL4 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Blessures mortelles (en transit)</t>
+  </si>
+  <si>
+    <t>Nombre de décès attendus résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant les déplacements domicile-travail du matin et du soir (06:00-09:00 et 17:00-20:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Res3 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Résidents relogés après 3 jours</t>
+  </si>
+  <si>
+    <t>Nombre attendu de personnes à reloger pendant un maximum de 3 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Res30 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Résidents relogés après 30 jours</t>
+  </si>
+  <si>
+    <t>Nombre attendu de personnes à reloger pendant un maximum de 30 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Res90 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Résidents relogés après 90 jours</t>
+  </si>
+  <si>
+    <t>Nombre attendu de personnes à reloger pendant un maximum de 90 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sCr_Res90 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Ratio de résidents relogés après 90 jours</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Proportion attendue de la population nocturne à reloger pendant un maximum de 90 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments (sCt_DisplRes90 / Et_PopNight)</t>
+  </si>
+  <si>
+    <t>sC_Res180 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Résidents relogés après 180 jours</t>
+  </si>
+  <si>
+    <t>Nombre attendu de personnes à reloger pendant un maximum de 180 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Res360 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Résidents relogés après 360 jours</t>
+  </si>
+  <si>
+    <t>Nombre attendu de personnes à reloger pendant un maximum de 360 jours selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Hshld (b0/r1)</t>
+  </si>
+  <si>
+    <t>Ménages relogés</t>
+  </si>
+  <si>
+    <t>ménages</t>
+  </si>
+  <si>
+    <t>Nombre attendu de ménages à reloger selon le scénario de séisme (sH_RupName) en raison de dommages aux bâtiments, (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Empl30 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Employés affectés après 30 jours</t>
+  </si>
+  <si>
+    <t>Nombre attendu d'employés affectés pendant un maximum de 30 jours par l'interruption des activités commerciales causée par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Empl90 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Employés affectés après 90 jours</t>
+  </si>
+  <si>
+    <t>Nombre attendu d'employés affectés pendant un maximum de 90 jours par l'interruption des activités commerciales causée par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sCr_Empl90 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Ratio d'employés affectés après 90 jours</t>
+  </si>
+  <si>
+    <t>Proportion attendue d'employés affectés pendant un maximum de 90 jours par l'interruption des activités commerciales causée par les dommages aux bâtiments selon le scénario de séisme (sCt_DisrupEmpl90 / Et_PopDay), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Empl180 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Employés affectés après 180 jours</t>
+  </si>
+  <si>
+    <t>Nombre attendu d'employés affectés pendant un maximum de 180 jours par l'interruption des activités commerciales causée par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sC_Empl360 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Employés affectés après 360 jours</t>
+  </si>
+  <si>
+    <t>Nombre attendu d'employés affectés pendant un maximum de 360 jours par l'interruption des activités commerciales causée par les dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sL_Asset (b0/r1)</t>
+  </si>
+  <si>
+    <t>Pertes d'actifs</t>
+  </si>
+  <si>
+    <t>$ CA</t>
+  </si>
+  <si>
+    <t>Pertes totales attendues d'actifs immobilisés (bâtiments et leur contenu) selon un scénario de rupture de séisme précis (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sL_Bldg (b0/r1)</t>
+  </si>
+  <si>
+    <t>Pertes liées aux bâtiments</t>
+  </si>
+  <si>
+    <t>Pertes totales attendues en raison des dommages aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sLr_Bldg (b0/r1)</t>
+  </si>
+  <si>
+    <t>Ratio des pertes liées aux bâtiments</t>
+  </si>
+  <si>
+    <t>Ratio moyen des pertes liées aux bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sL_Str (b0/r1)</t>
+  </si>
+  <si>
+    <t>Pertes structurales</t>
+  </si>
+  <si>
+    <t>Pertes totales attendues liées aux éléments structuraux des bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sL_Nstr (b0/r1)</t>
+  </si>
+  <si>
+    <t>Pertes non structurales</t>
+  </si>
+  <si>
+    <t>Pertes totales attendues liées aux éléments non structuraux des bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sL_Cont (b0/r1)</t>
+  </si>
+  <si>
+    <t>Pertes liées au contenu</t>
+  </si>
+  <si>
+    <t>Pertes totales attendues liées au contenu des bâtiments selon le scénario de séisme (sH_RupName), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>Sauid</t>
+  </si>
+  <si>
+    <t>ID de la zone habitée</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Code d'identification unique attribué à une zone habitée (SAUID), qui représente l'empreinte approximative des bâtiments permanents dans les aires de diffusion du recensement (DAUID)</t>
+  </si>
+  <si>
+    <t>pruid</t>
+  </si>
+  <si>
+    <t>ID de la province ou du territoire</t>
+  </si>
+  <si>
+    <t>Identificateur unique attribué à la province ou au territoire</t>
+  </si>
+  <si>
+    <t>prname</t>
+  </si>
+  <si>
+    <t>Nom de la province ou du territoire</t>
+  </si>
+  <si>
+    <t>eruid</t>
+  </si>
+  <si>
+    <t>ID de la région économique du recensement</t>
+  </si>
+  <si>
+    <t>Identificateur unique attribué à la région économique</t>
+  </si>
+  <si>
+    <t>cduid</t>
+  </si>
+  <si>
+    <t>ID de la division de recensement</t>
+  </si>
+  <si>
+    <t>Identificateur unique attribué à la division de recensement</t>
+  </si>
+  <si>
+    <t>cdname</t>
+  </si>
+  <si>
+    <t>Nom de la division de recensement</t>
+  </si>
+  <si>
+    <t>csduid</t>
+  </si>
+  <si>
+    <t>ID de la subdivision de recensement</t>
+  </si>
+  <si>
+    <t>Identificateur unique attribué à la subdivision de recensement</t>
+  </si>
+  <si>
+    <t>csdname</t>
+  </si>
+  <si>
+    <t>Nom de la subdivision de recensement</t>
+  </si>
+  <si>
+    <t>fsauid</t>
+  </si>
+  <si>
+    <t>ID de la région de tri d'acheminement</t>
+  </si>
+  <si>
+    <t>Identificateur unique attribué à la région de tri d'acheminement</t>
+  </si>
+  <si>
+    <t>dauid</t>
+  </si>
+  <si>
+    <t>ID de l'aire de diffusion</t>
+  </si>
+  <si>
+    <t>Identificateur unique attribué à l'aire de diffusion</t>
+  </si>
+  <si>
+    <t>saccode</t>
+  </si>
+  <si>
+    <t>Classification des secteurs statistiques</t>
+  </si>
+  <si>
+    <t>Code à trois chiffres de la Classification des secteurs statistiques</t>
+  </si>
+  <si>
+    <t>sactype</t>
+  </si>
+  <si>
+    <t>Genre de la Classification des secteurs statistiques</t>
+  </si>
+  <si>
+    <t>La Classification des secteurs statistiques indique si une subdivision de recensement est une composante d'une région métropolitaine de recensement, d'une agglomération de recensement, d'une zone d'influence métropolitaine de recensement ou dans les territoires.</t>
+  </si>
+  <si>
+    <t>Fonction d'agrégation 
 au-delà de SAUID</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom du scénario de rupture de séisme utilisé pour l'estimation des dommages et des pertes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_None (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_None (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_Slight (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_Slight (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_Moderate (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_Moderate (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_Extensive (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_Extensive (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_Complete (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_Complete (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_Collapse (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_Collapse (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCm_Interruption (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCm_Repair (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCm_Recovery (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_DebrisTotal (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_DebrisBW (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_DebrisCS (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasDayL1 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasDayL2 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasDayL3 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasDayL4 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de décès résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant le jour (09:00-17:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasNightL1 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasNightL2 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasNightL3 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasNightL4 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de décès résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant la nuit (20:00-06:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasTransitL1 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasTransitL2 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasTransitL3 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasTransitL4 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de décès résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant les déplacements domicile-travail du matin et du soir (06:00-09:00 et 17:00-20:00), (b0 = référence, r1 = rénovation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Shelter (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Besoins en matière de refuges d'urgence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre attendu de personnes qui auront besoin d'un refuge d'urgence à court terme selon le scénario de séisme (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Res3 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Res30 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Res90 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCr_Res90 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Res180 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Res360 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Hshld (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Empl30 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Empl90 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCr_Empl90 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Empl180 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Empl360 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLt_Asset (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLm_Asset (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio des pertes d'actifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio moyen des pertes d'actifs immobilisés (bâtiments et leur contenu) selon le scénario de séisme (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLt_Bldg (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLmr_Bldg (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLt_Str (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLt_Nstr (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLt_Cont (b0,r1)</t>
+    <t>Nom du scénario de rupture de séisme utilisé pour l'estimation des dommages et des pertes</t>
+  </si>
+  <si>
+    <t>sDt_None (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDtr_None (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDt_Slight (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDtr_Slight (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDt_Moderate (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDtr_Moderate (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDt_Extensive (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDtr_Extensive (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDt_Complete (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDtr_Complete (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDt_Collapse (b0,r1)</t>
+  </si>
+  <si>
+    <t>sDtr_Collapse (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCm_Interruption (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCm_Repair (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCm_Recovery (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_DebrisTotal (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_DebrisBW (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_DebrisCS (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_CasDayL1 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_CasDayL2 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_CasDayL3 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_CasDayL4 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Nombre attendu de décès résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant le jour (09:00-17:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sCt_CasNightL1 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_CasNightL2 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_CasNightL3 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_CasNightL4 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Nombre attendu de décès résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant la nuit (20:00-06:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sCt_CasTransitL1 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_CasTransitL2 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_CasTransitL3 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_CasTransitL4 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Nombre attendu de décès résultant de l'effondrement ou de l'endommagement complet d'un bâtiment (niveau de gravité 4) selon le scénario de séisme (sH_RupName), s'il se produit pendant les déplacements domicile-travail du matin et du soir (06:00-09:00 et 17:00-20:00), (b0 = référence, r1 = rénovation)</t>
+  </si>
+  <si>
+    <t>sCt_Shelter (b0,r1)</t>
+  </si>
+  <si>
+    <t>Besoins en matière de refuges d'urgence</t>
+  </si>
+  <si>
+    <t>Nombre attendu de personnes qui auront besoin d'un refuge d'urgence à court terme selon le scénario de séisme (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Res3 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_Res30 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_Res90 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCr_Res90 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_Res180 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_Res360 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_Hshld (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_Empl30 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_Empl90 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCr_Empl90 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_Empl180 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sCt_Empl360 (b0,r1)</t>
+  </si>
+  <si>
+    <t>sLt_Asset (b0,r1)</t>
+  </si>
+  <si>
+    <t>sLm_Asset (b0,r1)</t>
+  </si>
+  <si>
+    <t>Ratio des pertes d'actifs</t>
+  </si>
+  <si>
+    <t>Ratio moyen des pertes d'actifs immobilisés (bâtiments et leur contenu) selon le scénario de séisme (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sLt_Bldg (b0,r1)</t>
+  </si>
+  <si>
+    <t>sLmr_Bldg (b0,r1)</t>
+  </si>
+  <si>
+    <t>sLt_Str (b0,r1)</t>
+  </si>
+  <si>
+    <t>sLt_Nstr (b0,r1)</t>
+  </si>
+  <si>
+    <t>sLt_Cont (b0,r1)</t>
+  </si>
+  <si>
+    <t>E_BldgDesLev</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>E_BldgOccS1</t>
+  </si>
+  <si>
+    <t>E_BldgTypeG</t>
+  </si>
+  <si>
+    <t>Niveau de conception parasismique</t>
+  </si>
+  <si>
+    <t>Niveau de conception de la sécurité sismique attribué en fonction de l’intensité des secousses sismiques au niveau du site et de l’époque de construction</t>
+  </si>
+  <si>
+    <t>Occupation d’immeuble spécifique selon Hazus</t>
+  </si>
+  <si>
+    <t>Catégorie d’occupation d’immeuble spécifique fondée sur la classification HAZUS standard nord-américaine</t>
+  </si>
+  <si>
+    <t>Construction d’immeuble générale</t>
+  </si>
+  <si>
+    <t>Type de construction d’immeuble générale fondé sur la classification HAZUS standard nord-américaine</t>
+  </si>
+  <si>
+    <t>E_BldgOccG</t>
+  </si>
+  <si>
+    <t>Occupation d’immeuble générale</t>
+  </si>
+  <si>
+    <t>Catégorie d’occupation d’immeuble générale fondée sur la classification HAZUS standard nord-américaine</t>
+  </si>
+  <si>
+    <t>E_BldgTypeS</t>
+  </si>
+  <si>
+    <t>Construction d’immeuble spécifique</t>
+  </si>
+  <si>
+    <t>Type de construction d’immeuble spécifique fondé sur la classification HAZUS standard nord-américaine</t>
+  </si>
+  <si>
+    <t>cartesismique_reghex_1km, 5km, 10km, 25km, 50km, 100km</t>
+  </si>
+  <si>
+    <t>Nom de l’attribut</t>
+  </si>
+  <si>
+    <t>coord_1,_5,_10,_25,_50,_100</t>
+  </si>
+  <si>
+    <t>ID reghex à 1,5,10,25,50,100km</t>
+  </si>
+  <si>
+    <t>Identification reghex unique à différents niveaux de regroupement de 1, 5, 10, 25, 50 et 100 km</t>
+  </si>
+  <si>
+    <t>aS_AMS_moy</t>
+  </si>
+  <si>
+    <t>Accélération maximale du sol moyenne</t>
+  </si>
+  <si>
+    <t>g (9,81 m/s2)</t>
+  </si>
+  <si>
+    <t>Accélération maximale du sol (AMS) moyenne attendue pour le scénario de séisme (aS_NomRup) dans la zone reghex spécifiée</t>
+  </si>
+  <si>
+    <t>aS_AMS_min</t>
+  </si>
+  <si>
+    <t>Accélération maximale du sol minimale</t>
+  </si>
+  <si>
+    <t>Accélération maximale du sol (AMS) minimale attendue pour le scénario de séisme (aS_NomRup) dans la zone reghex spécifiée</t>
+  </si>
+  <si>
+    <t>aS_AMS_max</t>
+  </si>
+  <si>
+    <t>Accélération maximale du sol maximale</t>
+  </si>
+  <si>
+    <t>Accélération maximale du sol (AMS) maximale attendue pour le scénario de séisme (aS_NomRup) dans la zone reghex spécifiée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1028,22 +1123,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1058,7 +1138,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1071,311 +1151,584 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="192.86"/>
+    <col min="1" max="1" width="192.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="149.86"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="149.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1389,7 +1742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1757,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1418,7 +1771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1432,7 +1785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1447,7 +1800,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -1462,7 +1815,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -1477,7 +1830,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1491,7 +1844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1506,7 +1859,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -1520,7 +1873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -1534,7 +1887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -1548,7 +1901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
@@ -1562,7 +1915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
@@ -1576,7 +1929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
@@ -1590,50 +1943,117 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>358</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="149.86"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="149.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +2071,7 @@
       </c>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>52</v>
       </c>
@@ -1668,182 +2088,182 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>67</v>
@@ -1852,100 +2272,100 @@
         <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>28</v>
@@ -1954,15 +2374,15 @@
         <v>54</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>28</v>
@@ -1971,831 +2391,831 @@
         <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E26" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="D27" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B28" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C28" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D28" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B29" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C29" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="26" t="s">
+      <c r="D29" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B30" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C30" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D30" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E30" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B31" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="26" t="s">
+      <c r="D31" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B32" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C32" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D32" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E32" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D40" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B41" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D41" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D42" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B43" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="D43" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B44" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="D44" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B45" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="C45" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B46" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="C46" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B47" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="C47" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B48" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="C48" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+    <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B49" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="C49" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
+    <row r="50" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B50" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="C50" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
+    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B51" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="C51" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
+    <row r="52" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B52" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="C52" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B53" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="C53" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B54" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="C54" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B55" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="C55" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+    <row r="56" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B56" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="29" t="s">
+      <c r="C56" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B57" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="29" t="s">
+      <c r="C57" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B58" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="C58" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+    <row r="59" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B59" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="C59" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+    <row r="60" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B60" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D60" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+    <row r="61" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B61" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="C61" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+    <row r="62" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B62" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="26" t="s">
+      <c r="C62" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B63" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C63" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="26" t="s">
+      <c r="D63" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="26" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+    <row r="64" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B64" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="26" t="s">
+      <c r="C64" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="26" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
+    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B65" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="26" t="s">
+      <c r="C65" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="26" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+    <row r="66" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B66" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C66" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>12</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>89</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>85</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>218</v>
@@ -2804,117 +3224,117 @@
         <v>85</v>
       </c>
       <c r="E69" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="15" t="s">
+    <row r="75" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B75" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>251</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>8</v>
@@ -2923,15 +3343,15 @@
         <v>54</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>8</v>
@@ -2940,15 +3360,15 @@
         <v>54</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>8</v>
@@ -2957,15 +3377,15 @@
         <v>54</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>8</v>
@@ -2974,15 +3394,15 @@
         <v>54</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>8</v>
@@ -2990,16 +3410,16 @@
       <c r="D80" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>8</v>
@@ -3008,41 +3428,118 @@
         <v>54</v>
       </c>
       <c r="E81" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="33" t="s">
         <v>268</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="149.86"/>
+    <col min="1" max="1" width="20.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25" style="34" customWidth="1"/>
+    <col min="5" max="5" width="149.85546875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3059,7 +3556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>235</v>
       </c>
@@ -3076,7 +3573,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>17</v>
       </c>
@@ -3093,7 +3590,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>56</v>
       </c>
@@ -3110,7 +3607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
@@ -3127,7 +3624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
@@ -3144,7 +3641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
@@ -3161,7 +3658,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>65</v>
       </c>
@@ -3178,7 +3675,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>69</v>
       </c>
@@ -3195,7 +3692,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
@@ -3212,7 +3709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>72</v>
       </c>
@@ -3229,7 +3726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>76</v>
       </c>
@@ -3246,7 +3743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>79</v>
       </c>
@@ -3263,7 +3760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
@@ -3280,7 +3777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>30</v>
       </c>
@@ -3297,7 +3794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>33</v>
       </c>
@@ -3314,7 +3811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>36</v>
       </c>
@@ -3331,7 +3828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>39</v>
       </c>
@@ -3348,7 +3845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>42</v>
       </c>
@@ -3365,7 +3862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>45</v>
       </c>
@@ -3382,7 +3879,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>48</v>
       </c>
@@ -3399,7 +3896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>271</v>
       </c>
@@ -3416,7 +3913,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>272</v>
       </c>
@@ -3433,7 +3930,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>273</v>
       </c>
@@ -3450,7 +3947,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>274</v>
       </c>
@@ -3467,7 +3964,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>275</v>
       </c>
@@ -3484,7 +3981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>276</v>
       </c>
@@ -3501,7 +3998,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>277</v>
       </c>
@@ -3518,7 +4015,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>278</v>
       </c>
@@ -3535,7 +4032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>279</v>
       </c>
@@ -3552,7 +4049,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>280</v>
       </c>
@@ -3569,7 +4066,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>281</v>
       </c>
@@ -3586,7 +4083,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>282</v>
       </c>
@@ -3603,7 +4100,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>283</v>
       </c>
@@ -3620,7 +4117,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>284</v>
       </c>
@@ -3637,7 +4134,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>285</v>
       </c>
@@ -3654,7 +4151,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>286</v>
       </c>
@@ -3671,7 +4168,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>287</v>
       </c>
@@ -3688,7 +4185,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>288</v>
       </c>
@@ -3705,7 +4202,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>289</v>
       </c>
@@ -3722,7 +4219,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>290</v>
       </c>
@@ -3739,7 +4236,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>291</v>
       </c>
@@ -3756,7 +4253,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>292</v>
       </c>
@@ -3773,7 +4270,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>294</v>
       </c>
@@ -3790,7 +4287,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>295</v>
       </c>
@@ -3807,7 +4304,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>296</v>
       </c>
@@ -3824,7 +4321,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>297</v>
       </c>
@@ -3841,7 +4338,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>299</v>
       </c>
@@ -3858,7 +4355,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>300</v>
       </c>
@@ -3875,7 +4372,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>301</v>
       </c>
@@ -3892,7 +4389,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>302</v>
       </c>
@@ -3909,7 +4406,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>304</v>
       </c>
@@ -3926,7 +4423,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>307</v>
       </c>
@@ -3943,7 +4440,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>308</v>
       </c>
@@ -3960,7 +4457,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>309</v>
       </c>
@@ -3977,7 +4474,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>310</v>
       </c>
@@ -3994,7 +4491,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>311</v>
       </c>
@@ -4011,7 +4508,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>312</v>
       </c>
@@ -4028,7 +4525,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>313</v>
       </c>
@@ -4045,7 +4542,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>314</v>
       </c>
@@ -4062,7 +4559,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>315</v>
       </c>
@@ -4079,7 +4576,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>316</v>
       </c>
@@ -4096,7 +4593,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>317</v>
       </c>
@@ -4113,7 +4610,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>318</v>
       </c>
@@ -4130,7 +4627,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>319</v>
       </c>
@@ -4147,7 +4644,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>320</v>
       </c>
@@ -4164,7 +4661,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>323</v>
       </c>
@@ -4181,7 +4678,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>324</v>
       </c>
@@ -4198,7 +4695,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>325</v>
       </c>
@@ -4215,7 +4712,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>326</v>
       </c>
@@ -4232,7 +4729,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>327</v>
       </c>
@@ -4249,7 +4746,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>239</v>
       </c>
@@ -4266,7 +4763,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>242</v>
       </c>
@@ -4283,7 +4780,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>244</v>
       </c>
@@ -4300,7 +4797,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>247</v>
       </c>
@@ -4317,7 +4814,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>250</v>
       </c>
@@ -4334,7 +4831,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>252</v>
       </c>
@@ -4351,7 +4848,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>255</v>
       </c>
@@ -4368,7 +4865,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>257</v>
       </c>
@@ -4385,7 +4882,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>260</v>
       </c>
@@ -4402,7 +4899,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>263</v>
       </c>
@@ -4419,7 +4916,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>266</v>
       </c>
@@ -4437,37 +4934,27 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="149.86"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="149.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4484,7 +4971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>252</v>
       </c>
@@ -4501,7 +4988,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>255</v>
       </c>
@@ -4518,7 +5005,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>17</v>
       </c>
@@ -4535,7 +5022,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>56</v>
       </c>
@@ -4552,7 +5039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>20</v>
       </c>
@@ -4569,7 +5056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
@@ -4586,7 +5073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>62</v>
       </c>
@@ -4603,7 +5090,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>65</v>
       </c>
@@ -4620,7 +5107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>69</v>
       </c>
@@ -4637,7 +5124,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>23</v>
       </c>
@@ -4654,7 +5141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>72</v>
       </c>
@@ -4671,7 +5158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>76</v>
       </c>
@@ -4688,7 +5175,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>79</v>
       </c>
@@ -4705,7 +5192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>26</v>
       </c>
@@ -4722,7 +5209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>30</v>
       </c>
@@ -4739,7 +5226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>33</v>
       </c>
@@ -4756,7 +5243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>36</v>
       </c>
@@ -4773,7 +5260,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>39</v>
       </c>
@@ -4790,7 +5277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>42</v>
       </c>
@@ -4807,7 +5294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>45</v>
       </c>
@@ -4824,7 +5311,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>48</v>
       </c>
@@ -4841,7 +5328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>271</v>
       </c>
@@ -4858,7 +5345,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>272</v>
       </c>
@@ -4875,7 +5362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>273</v>
       </c>
@@ -4892,7 +5379,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>274</v>
       </c>
@@ -4909,7 +5396,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>275</v>
       </c>
@@ -4926,7 +5413,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>276</v>
       </c>
@@ -4943,7 +5430,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>277</v>
       </c>
@@ -4960,7 +5447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>278</v>
       </c>
@@ -4977,7 +5464,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>279</v>
       </c>
@@ -4994,7 +5481,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>280</v>
       </c>
@@ -5011,7 +5498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>281</v>
       </c>
@@ -5028,7 +5515,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>282</v>
       </c>
@@ -5045,7 +5532,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>283</v>
       </c>
@@ -5062,7 +5549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>284</v>
       </c>
@@ -5079,7 +5566,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>285</v>
       </c>
@@ -5096,7 +5583,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>286</v>
       </c>
@@ -5113,7 +5600,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>287</v>
       </c>
@@ -5130,7 +5617,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
         <v>288</v>
       </c>
@@ -5147,7 +5634,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
         <v>289</v>
       </c>
@@ -5164,7 +5651,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>290</v>
       </c>
@@ -5181,7 +5668,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>291</v>
       </c>
@@ -5198,7 +5685,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>292</v>
       </c>
@@ -5215,7 +5702,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>294</v>
       </c>
@@ -5232,7 +5719,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>295</v>
       </c>
@@ -5249,7 +5736,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>296</v>
       </c>
@@ -5266,7 +5753,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>297</v>
       </c>
@@ -5283,7 +5770,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>299</v>
       </c>
@@ -5300,7 +5787,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
         <v>300</v>
       </c>
@@ -5317,7 +5804,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
         <v>301</v>
       </c>
@@ -5334,7 +5821,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
         <v>302</v>
       </c>
@@ -5351,7 +5838,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
         <v>304</v>
       </c>
@@ -5368,7 +5855,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
         <v>307</v>
       </c>
@@ -5385,7 +5872,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>308</v>
       </c>
@@ -5402,7 +5889,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
         <v>309</v>
       </c>
@@ -5419,7 +5906,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39" t="s">
         <v>310</v>
       </c>
@@ -5436,7 +5923,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
         <v>311</v>
       </c>
@@ -5453,7 +5940,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39" t="s">
         <v>312</v>
       </c>
@@ -5470,7 +5957,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
         <v>313</v>
       </c>
@@ -5487,7 +5974,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
         <v>314</v>
       </c>
@@ -5504,7 +5991,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
         <v>315</v>
       </c>
@@ -5521,7 +6008,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
         <v>316</v>
       </c>
@@ -5538,7 +6025,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
         <v>317</v>
       </c>
@@ -5555,7 +6042,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
         <v>318</v>
       </c>
@@ -5572,7 +6059,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
         <v>319</v>
       </c>
@@ -5589,7 +6076,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
         <v>320</v>
       </c>
@@ -5606,7 +6093,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
         <v>323</v>
       </c>
@@ -5623,7 +6110,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="39" t="s">
         <v>324</v>
       </c>
@@ -5640,7 +6127,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
         <v>325</v>
       </c>
@@ -5657,7 +6144,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
         <v>326</v>
       </c>
@@ -5674,7 +6161,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="39" t="s">
         <v>327</v>
       </c>
@@ -5692,12 +6179,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>